--- a/biology/Botanique/Pentaphylacaceae/Pentaphylacaceae.xlsx
+++ b/biology/Botanique/Pentaphylacaceae/Pentaphylacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pentaphylacaceae (les Pentaphylacacées en français) est une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique, qui comprend entre 1 et 60 espèces dans 1 à 8 genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Pentaphylax, composé des mots grecs πέντε / pente, cinq, et φύλαξ / fylax, gardien, en référence aux fleurs dont les cinq anthères semblent « monter la garde » autour de l’ovaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Pentaphylax, composé des mots grecs πέντε / pente, cinq, et φύλαξ / fylax, gardien, en référence aux fleurs dont les cinq anthères semblent « monter la garde » autour de l’ovaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG (1998)[2], cette famille est acceptée mais n'est pas assignée à un ordre ou un clade. En classification phylogénétique APG II (2003)[3], la famille est placée dans l'ordre Ericales et accepte deux circonscriptions possibles, optionnellement :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG (1998), cette famille est acceptée mais n'est pas assignée à un ordre ou un clade. En classification phylogénétique APG II (2003), la famille est placée dans l'ordre Ericales et accepte deux circonscriptions possibles, optionnellement :
 stricto sensu : cette seule espèce
 lato sensu : en incluant les plantes des Ternstroemiacées.
 La Angiosperm Phylogeny Website a choisi la deuxième option et considère 3 tribus :
@@ -578,10 +594,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Ternstroemiaceae.
-Selon NCBI  (29 Jun 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Ternstroemiaceae.
+Selon NCBI  (29 Jun 2010) :
 Adinandra (en)
 Anneslea (es)
 Archytaea (es)
@@ -590,7 +608,7 @@
 EuryodendronEuryodendron
 Pentaphylax (en)
 Ternstroemia
-Selon Angiosperm Phylogeny Website                        (29 Jun 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (29 Jun 2010) :
 Adinandra
 Anneslea
 Balthazaria
@@ -604,7 +622,7 @@
 Ternstroemia L. f.
 Ternstroemiopsis (es) Urban
 VisneaVisnea
-Selon DELTA Angio           (29 Jun 2010)[7] :
+Selon DELTA Angio           (29 Jun 2010) :
 Pentaphylax</t>
         </is>
       </c>
@@ -633,9 +651,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 Jun 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 Jun 2010) :
 genre Adinandra
 Adinandra dumosa
 Adinandra elegans
@@ -703,7 +723,7 @@
 Ternstroemia luteoflora
 Ternstroemia microphylla
 Ternstroemia stahlii
-Selon DELTA Angio           (29 Jun 2010)[7] :
+Selon DELTA Angio           (29 Jun 2010) :
 genre Pentaphylax
 Pentaphylax euryoides</t>
         </is>
